--- a/참고자료/최신/PlusParking_WEBIO_API_CS/에스텍 WEB_IO 연동API.xlsx
+++ b/참고자료/최신/PlusParking_WEBIO_API_CS/에스텍 WEB_IO 연동API.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyw\Documents\APTMentsAPI\참고자료\최신\PlusParking_WEBIO_API_CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53A0BA78-AC29-4EAA-9D24-754C2A23A245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{75A1C366-DE31-483A-B0CE-80EB7209E569}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="입차" sheetId="1" r:id="rId1"/>
     <sheet name="출차" sheetId="2" r:id="rId2"/>
     <sheet name="순찰패드" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="152">
   <si>
     <t>Transaction</t>
   </si>
@@ -443,9 +442,6 @@
     <t>데이터</t>
   </si>
   <si>
-    <t>PATROL_DTM</t>
-  </si>
-  <si>
     <t>순찰 일시</t>
   </si>
   <si>
@@ -482,12 +478,40 @@
   </si>
   <si>
     <t>결과메시지</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입차?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATROL_DTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -547,7 +571,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +584,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="41">
     <border>
@@ -1131,7 +1161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1231,6 +1261,129 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1270,111 +1423,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1384,31 +1432,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1744,11 +1795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5C956A-7473-4B5E-9AA5-BFF667A2BAEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1762,32 +1813,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1799,45 +1850,45 @@
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
     </row>
     <row r="4" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
@@ -1851,7 +1902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="23.25" thickBot="1">
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -1943,7 +1994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="23.25" thickBot="1">
+    <row r="12" spans="1:8" ht="17.25" thickBot="1">
       <c r="A12" s="16"/>
       <c r="B12" s="11" t="s">
         <v>26</v>
@@ -1961,7 +2012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="23.25" thickBot="1">
+    <row r="13" spans="1:8" ht="17.25" thickBot="1">
       <c r="A13" s="16"/>
       <c r="B13" s="11" t="s">
         <v>28</v>
@@ -2049,7 +2100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45.75" thickBot="1">
+    <row r="18" spans="1:8" ht="17.25" thickBot="1">
       <c r="A18" s="16"/>
       <c r="B18" s="11" t="s">
         <v>40</v>
@@ -2085,7 +2136,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="79.5" thickBot="1">
+    <row r="20" spans="1:8" ht="23.25" thickBot="1">
       <c r="A20" s="16"/>
       <c r="B20" s="17" t="s">
         <v>44</v>
@@ -2119,7 +2170,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="79.5" thickBot="1">
+    <row r="22" spans="1:8" ht="23.25" thickBot="1">
       <c r="A22" s="16"/>
       <c r="B22" s="12"/>
       <c r="C22" s="21" t="s">
@@ -2169,7 +2220,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45.75" thickBot="1">
+    <row r="25" spans="1:8" ht="17.25" thickBot="1">
       <c r="A25" s="16"/>
       <c r="B25" s="11" t="s">
         <v>55</v>
@@ -2187,7 +2238,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45.75" thickBot="1">
+    <row r="26" spans="1:8" ht="17.25" thickBot="1">
       <c r="A26" s="16"/>
       <c r="B26" s="11" t="s">
         <v>57</v>
@@ -2235,7 +2286,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="113.25" thickBot="1">
+    <row r="29" spans="1:8" ht="34.5" thickBot="1">
       <c r="A29" s="16"/>
       <c r="B29" s="17" t="s">
         <v>63</v>
@@ -2271,7 +2322,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="124.5" thickBot="1">
+    <row r="31" spans="1:8" ht="45.75" thickBot="1">
       <c r="A31" s="16"/>
       <c r="B31" s="17" t="s">
         <v>68</v>
@@ -2289,7 +2340,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="79.5" thickBot="1">
+    <row r="32" spans="1:8" ht="23.25" thickBot="1">
       <c r="A32" s="16"/>
       <c r="B32" s="24" t="s">
         <v>70</v>
@@ -2309,7 +2360,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="68.25" thickBot="1">
+    <row r="33" spans="1:8" ht="23.25" thickBot="1">
       <c r="A33" s="16"/>
       <c r="B33" s="11" t="s">
         <v>72</v>
@@ -2325,7 +2376,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="57" thickBot="1">
+    <row r="34" spans="1:8" ht="17.25" thickBot="1">
       <c r="A34" s="16"/>
       <c r="B34" s="11" t="s">
         <v>74</v>
@@ -2351,7 +2402,7 @@
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
     </row>
-    <row r="36" spans="1:8" ht="23.25" thickBot="1">
+    <row r="36" spans="1:8" ht="17.25" thickBot="1">
       <c r="A36" s="10" t="s">
         <v>76</v>
       </c>
@@ -2416,11 +2467,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D279327-5863-4DD5-BFDF-3F1D7BCAD39E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2434,32 +2485,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" ht="23.25" thickBot="1">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="76"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4" t="s">
         <v>83</v>
       </c>
@@ -2471,118 +2522,118 @@
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
     </row>
     <row r="4" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="81" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="50" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A7" s="52" t="s">
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A7" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="57" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="53" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="57" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="H8" s="41" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="57" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="60"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
         <v>15</v>
@@ -2591,238 +2642,238 @@
         <v>16</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="41" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="61" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="57" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="41" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="57" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="41" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="53" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="57" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56" t="s">
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="57" t="s">
+      <c r="F14" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="39"/>
+      <c r="H14" s="41" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="56" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="41" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A16" s="58"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="57" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="41" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A17" s="58"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="57" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="41" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A18" s="58"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="57" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="41" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A19" s="58"/>
-      <c r="B19" s="53" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="57" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="39"/>
+      <c r="H19" s="41" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="57" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="41" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="13"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="57" t="s">
+      <c r="G21" s="39"/>
+      <c r="H21" s="41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="53" t="s">
+    <row r="22" spans="1:8" ht="23.25" thickBot="1">
+      <c r="A22" s="42"/>
+      <c r="B22" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="13"/>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="41" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A23" s="58"/>
-      <c r="B23" s="63" t="s">
+    <row r="23" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A23" s="42"/>
+      <c r="B23" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="13"/>
       <c r="E23" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="64" t="s">
+      <c r="H23" s="48" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A24" s="58"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="21" t="s">
         <v>47</v>
       </c>
@@ -2837,8 +2888,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="79.5" thickBot="1">
-      <c r="A25" s="58"/>
+    <row r="25" spans="1:8" ht="23.25" thickBot="1">
+      <c r="A25" s="42"/>
       <c r="B25" s="12"/>
       <c r="C25" s="21" t="s">
         <v>50</v>
@@ -2856,7 +2907,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A26" s="58"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="12"/>
       <c r="C26" s="21" t="s">
         <v>51</v>
@@ -2872,7 +2923,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A27" s="58"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="12"/>
       <c r="C27" s="21" t="s">
         <v>53</v>
@@ -2887,157 +2938,157 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A28" s="58"/>
-      <c r="B28" s="61" t="s">
+    <row r="28" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A28" s="42"/>
+      <c r="B28" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56" t="s">
+      <c r="C28" s="46"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="65" t="s">
+      <c r="G28" s="39"/>
+      <c r="H28" s="49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A29" s="58"/>
-      <c r="B29" s="66" t="s">
+    <row r="29" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A29" s="42"/>
+      <c r="B29" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="13"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="67" t="s">
+      <c r="G29" s="39"/>
+      <c r="H29" s="51" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="57" thickBot="1">
-      <c r="A30" s="58"/>
-      <c r="B30" s="68" t="s">
+    <row r="30" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A30" s="42"/>
+      <c r="B30" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="55"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="25" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="69" t="s">
+      <c r="G30" s="39"/>
+      <c r="H30" s="53" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A31" s="58"/>
-      <c r="B31" s="66" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="67" t="s">
+      <c r="G31" s="39"/>
+      <c r="H31" s="51" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A32" s="58"/>
-      <c r="B32" s="53" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56" t="s">
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40" t="s">
         <v>31</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="57" t="s">
+      <c r="G32" s="39"/>
+      <c r="H32" s="41" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A33" s="70"/>
-      <c r="B33" s="71" t="s">
+    <row r="33" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A33" s="54"/>
+      <c r="B33" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="72"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="32"/>
-      <c r="E33" s="73" t="s">
+      <c r="E33" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="73" t="s">
+      <c r="F33" s="57" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="32"/>
-      <c r="H33" s="74" t="s">
+      <c r="H33" s="58" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="56">
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="40">
         <v>0</v>
       </c>
-      <c r="G34" s="55"/>
-      <c r="H34" s="57" t="s">
+      <c r="G34" s="39"/>
+      <c r="H34" s="41" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A35" s="58"/>
-      <c r="B35" s="76" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="56">
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="40">
         <v>0</v>
       </c>
-      <c r="G35" s="55"/>
-      <c r="H35" s="57" t="s">
+      <c r="G35" s="39"/>
+      <c r="H35" s="41" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A36" s="70"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
-      <c r="H36" s="77"/>
+      <c r="H36" s="61"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" thickTop="1"/>
   </sheetData>
@@ -3056,11 +3107,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170B93FD-6B6E-4FCF-94D0-50D2CED31094}">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3074,33 +3125,33 @@
     <col min="8" max="8" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:11" ht="18" thickTop="1" thickBot="1">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" ht="34.5" thickBot="1">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4" t="s">
         <v>83</v>
       </c>
@@ -3108,365 +3159,389 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" thickBot="1">
+    <row r="3" spans="1:11" ht="17.25" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A5" s="33" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" thickTop="1" thickBot="1">
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" thickTop="1" thickBot="1">
+      <c r="A5" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="81" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="50" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="84" t="s">
+    <row r="7" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A7" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="85" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="63" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A8" s="86"/>
-      <c r="B8" s="53" t="s">
+    <row r="8" spans="1:11" ht="23.25" thickBot="1">
+      <c r="A8" s="93"/>
+      <c r="B8" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="87" t="s">
+      <c r="C8" s="95"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="99" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="53" t="s">
+      <c r="I8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="23.25" thickBot="1">
+      <c r="A9" s="64"/>
+      <c r="B9" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="23.25" thickBot="1">
+      <c r="A10" s="93"/>
+      <c r="B10" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="23.25" thickBot="1">
+      <c r="A11" s="93"/>
+      <c r="B11" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A12" s="93"/>
+      <c r="B12" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="57" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A10" s="86"/>
-      <c r="B10" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="87" t="s">
+      <c r="F12" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="96"/>
+      <c r="H12" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A13" s="64"/>
+      <c r="B13" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="23.25" thickBot="1">
+      <c r="A14" s="64"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A11" s="86"/>
-      <c r="B11" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A12" s="86"/>
-      <c r="B12" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56" t="s">
+      <c r="H14" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="23.25" thickBot="1">
+      <c r="A15" s="64"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="86"/>
-      <c r="B13" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="57" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A14" s="86"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="57" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="79.5" thickBot="1">
-      <c r="A15" s="86"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="53" t="s">
+      <c r="F15" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="39"/>
+      <c r="H15" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="85" t="s">
+    </row>
+    <row r="16" spans="1:11" ht="23.25" thickBot="1">
+      <c r="A16" s="64"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="37" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A16" s="86"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="53" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="85" t="s">
+    </row>
+    <row r="17" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A17" s="64"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="39"/>
+      <c r="H17" s="63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A18" s="64"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="37" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A17" s="86"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="85" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A18" s="86"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="53" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="85" t="s">
+    </row>
+    <row r="19" spans="1:8" ht="23.25" thickBot="1">
+      <c r="A19" s="64"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="37" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A19" s="86"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="53" t="s">
+      <c r="D19" s="39"/>
+      <c r="E19" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="85" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A20" s="86"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="88"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="66"/>
     </row>
     <row r="21" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A21" s="89"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
-      <c r="H21" s="91"/>
-    </row>
-    <row r="22" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A22" s="84" t="s">
+      <c r="H21" s="69"/>
+    </row>
+    <row r="22" spans="1:8" ht="23.25" thickBot="1">
+      <c r="A22" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="39"/>
+      <c r="H22" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="57" t="s">
+    </row>
+    <row r="23" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A23" s="64"/>
+      <c r="B23" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="39"/>
+      <c r="H23" s="41" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A23" s="86"/>
-      <c r="B23" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="57" t="s">
-        <v>145</v>
-      </c>
-    </row>
     <row r="24" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A24" s="70"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
-      <c r="H24" s="77"/>
+      <c r="H24" s="61"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" thickTop="1"/>
   </sheetData>
@@ -3481,5 +3556,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>